--- a/data/IEEE9/ieee9/ieee9_2024.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4ADA96-FFFD-4F28-9B00-5ED300DCCD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB3F8B-82D5-4722-8A78-41B43B8742BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3105" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="7350" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
